--- a/data/trans_orig/P25D_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3143</v>
+        <v>3340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20462</v>
+        <v>21828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01668118150529928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005717384276101881</v>
+        <v>0.00607617097511204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03722541125357398</v>
+        <v>0.03970965485933726</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>3271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1279</v>
+        <v>1033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7362</v>
+        <v>7462</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006710021389229559</v>
+        <v>0.006710021389229557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002622992391501793</v>
+        <v>0.002119516485923434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01510032960115539</v>
+        <v>0.0153063583875758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -783,19 +783,19 @@
         <v>12441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6174</v>
+        <v>6178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24699</v>
+        <v>24862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01199443524895357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005952463274763529</v>
+        <v>0.005956534092898229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02381331096899453</v>
+        <v>0.02397014067420533</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>540513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>529220</v>
+        <v>527854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546539</v>
+        <v>546342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9833188184947006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9627745887464255</v>
+        <v>0.9602903451406632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994282615723898</v>
+        <v>0.993923829024888</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>680</v>
@@ -833,19 +833,19 @@
         <v>484242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>480151</v>
+        <v>480051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>486234</v>
+        <v>486480</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9932899786107706</v>
+        <v>0.9932899786107705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9848996703988447</v>
+        <v>0.9846936416124242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9973770076084982</v>
+        <v>0.9978804835140767</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1227</v>
@@ -854,19 +854,19 @@
         <v>1024754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1012496</v>
+        <v>1012333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1031021</v>
+        <v>1031017</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9880055647510465</v>
+        <v>0.9880055647510464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761866890310055</v>
+        <v>0.9760298593257946</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9940475367252365</v>
+        <v>0.9940434659071017</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>7903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2934</v>
+        <v>2749</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16007</v>
+        <v>16956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01642922620775365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006099642258980554</v>
+        <v>0.005714528508563957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03327845929531362</v>
+        <v>0.03525071351350188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -979,19 +979,19 @@
         <v>4646</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1857</v>
+        <v>2029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10652</v>
+        <v>10624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01099774824909242</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004396006036694809</v>
+        <v>0.004802866671289531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0252152780585299</v>
+        <v>0.02514921980628968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1000,19 +1000,19 @@
         <v>12548</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6180</v>
+        <v>6717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21226</v>
+        <v>22265</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0138895728911499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006839959835867183</v>
+        <v>0.007434858392005752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0234940329586337</v>
+        <v>0.02464404219582055</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>473109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465005</v>
+        <v>464056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478078</v>
+        <v>478263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9835707737922463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9667215407046863</v>
+        <v>0.9647492864864983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939003577410195</v>
+        <v>0.994285471491436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>583</v>
@@ -1050,19 +1050,19 @@
         <v>417788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411782</v>
+        <v>411810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420577</v>
+        <v>420405</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9890022517509075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9747847219414703</v>
+        <v>0.9748507801937104</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9956039939633052</v>
+        <v>0.9951971333287105</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1056</v>
@@ -1071,19 +1071,19 @@
         <v>890898</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>882220</v>
+        <v>881181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>897266</v>
+        <v>896729</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9861104271088501</v>
+        <v>0.9861104271088499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9765059670413662</v>
+        <v>0.9753559578041794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9931600401641328</v>
+        <v>0.9925651416079941</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>4247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10919</v>
+        <v>10383</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009006100028434234</v>
+        <v>0.00900610002843423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002402946792410584</v>
+        <v>0.002351924335416497</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02315219425329258</v>
+        <v>0.02201558575089677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>3934</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1372</v>
+        <v>1480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10495</v>
+        <v>10418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02105510862822127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007341458479720669</v>
+        <v>0.007920552341156033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05617607999269111</v>
+        <v>0.05576320273685246</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1217,19 +1217,19 @@
         <v>8181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3797</v>
+        <v>3993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15367</v>
+        <v>16801</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01242494016815813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00576612053787895</v>
+        <v>0.006064385928231387</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02333811968091872</v>
+        <v>0.02551663153520968</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>467365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460693</v>
+        <v>461229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470479</v>
+        <v>470503</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9909938999715658</v>
+        <v>0.9909938999715657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9768478057467074</v>
+        <v>0.9779844142491033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975970532075894</v>
+        <v>0.9976480756645836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -1267,19 +1267,19 @@
         <v>182895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176334</v>
+        <v>176411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185457</v>
+        <v>185349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9789448913717788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438239200073089</v>
+        <v>0.9442367972631482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9926585415202794</v>
+        <v>0.9920794476588439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>767</v>
@@ -1288,19 +1288,19 @@
         <v>650259</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643073</v>
+        <v>641639</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654643</v>
+        <v>654447</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9875750598318419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9766618803190816</v>
+        <v>0.97448336846479</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9942338794621209</v>
+        <v>0.9939356140717687</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>12663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5818</v>
+        <v>6106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25592</v>
+        <v>28523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01122004955388946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005154663192451381</v>
+        <v>0.005410135139981963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02267524027627589</v>
+        <v>0.02527170503913899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1413,19 +1413,19 @@
         <v>6568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3197</v>
+        <v>2740</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12843</v>
+        <v>13361</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.007651925602437118</v>
+        <v>0.007651925602437119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003724270412040019</v>
+        <v>0.003192147978470016</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01496191087174394</v>
+        <v>0.01556545141611307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1434,19 +1434,19 @@
         <v>19232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10799</v>
+        <v>10663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32157</v>
+        <v>32255</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009678646283144981</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005434673324267387</v>
+        <v>0.005366412401145289</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01618356953321585</v>
+        <v>0.01623272707252171</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1115972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1103043</v>
+        <v>1100112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1122817</v>
+        <v>1122529</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9887799504461104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9773247597237236</v>
+        <v>0.974728294960861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9948453368075488</v>
+        <v>0.9945898648600181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1218</v>
@@ -1484,19 +1484,19 @@
         <v>851805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>845530</v>
+        <v>845012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>855176</v>
+        <v>855633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.992348074397563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9850380891282562</v>
+        <v>0.9844345485838873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.99627572958796</v>
+        <v>0.9968078520215301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2324</v>
@@ -1505,19 +1505,19 @@
         <v>1967775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1954850</v>
+        <v>1954752</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1976208</v>
+        <v>1976344</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9903213537168549</v>
+        <v>0.9903213537168551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9838164304667834</v>
+        <v>0.9837672729274783</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9945653266757325</v>
+        <v>0.9946335875988547</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>3992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>980</v>
+        <v>1066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12679</v>
+        <v>11176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007055615366103551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001731270932953879</v>
+        <v>0.001883731477761363</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02240950696352004</v>
+        <v>0.01975292568678685</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1630,19 +1630,19 @@
         <v>2586</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6357</v>
+        <v>7028</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003118033006133575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0009405101340721699</v>
+        <v>0.0009580891323993732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007663974252711995</v>
+        <v>0.008472648017303051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1651,19 +1651,19 @@
         <v>6578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2839</v>
+        <v>2639</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14786</v>
+        <v>14436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004714743165756495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002035027248739314</v>
+        <v>0.001891448335139105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01059710057822141</v>
+        <v>0.01034634874210174</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>561792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>553105</v>
+        <v>554608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564804</v>
+        <v>564718</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9929443846338963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9775904930364796</v>
+        <v>0.980247074313213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9982687290670462</v>
+        <v>0.9981162685222386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1284</v>
@@ -1701,19 +1701,19 @@
         <v>826887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>823116</v>
+        <v>822445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>828693</v>
+        <v>828678</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9968819669938663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.992336025747288</v>
+        <v>0.9915273519826969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9990594898659277</v>
+        <v>0.9990419108676006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1826</v>
@@ -1722,19 +1722,19 @@
         <v>1388679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1380471</v>
+        <v>1380821</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1392418</v>
+        <v>1392618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9952852568342435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9894028994217786</v>
+        <v>0.9896536512578981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979649727512606</v>
+        <v>0.9981085516648609</v>
       </c>
     </row>
     <row r="18">
@@ -1829,16 +1829,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8368</v>
+        <v>9443</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.007810608397382377</v>
+        <v>0.00781060839738238</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03543959547313742</v>
+        <v>0.03999049948246257</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>4938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16469</v>
+        <v>16669</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00585384686030783</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.000954514380515639</v>
+        <v>0.0009391992202804591</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01952203443452902</v>
+        <v>0.01975989935386172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1868,19 +1868,19 @@
         <v>6783</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1849</v>
+        <v>1864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16347</v>
+        <v>16917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00628178170877782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001712889695945687</v>
+        <v>0.0017264858097171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01514007846111277</v>
+        <v>0.01566752478371185</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +1897,7 @@
         <v>234286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227762</v>
+        <v>226687</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>236130</v>
@@ -1906,7 +1906,7 @@
         <v>0.9921893916026177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9645604045268625</v>
+        <v>0.9600095005175373</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>838652</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>827121</v>
+        <v>826921</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>842785</v>
+        <v>842798</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9941461531396923</v>
+        <v>0.9941461531396921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.980477965565471</v>
+        <v>0.9802401006461373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9990454856194844</v>
+        <v>0.9990608007797196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1265</v>
@@ -1939,19 +1939,19 @@
         <v>1072937</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1063373</v>
+        <v>1062803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1077871</v>
+        <v>1077856</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9937182182912222</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9848599215388868</v>
+        <v>0.9843324752162882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982871103040543</v>
+        <v>0.998273514190283</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>39819</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27275</v>
+        <v>26481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57903</v>
+        <v>59196</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01159938376973698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007945300095722337</v>
+        <v>0.007714049106676172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01686720079423485</v>
+        <v>0.0172439049490173</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2064,19 +2064,19 @@
         <v>25944</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17156</v>
+        <v>17368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37308</v>
+        <v>37872</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.007150498448154285</v>
+        <v>0.007150498448154287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004728395327890993</v>
+        <v>0.004786904321819257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01028275804049682</v>
+        <v>0.01043821435522443</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>60</v>
@@ -2085,19 +2085,19 @@
         <v>65763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48294</v>
+        <v>49846</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86835</v>
+        <v>88185</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009313398009908061</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006839547133338337</v>
+        <v>0.007059238923536339</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01229769780082407</v>
+        <v>0.01248891072528265</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3393035</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3374951</v>
+        <v>3373658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3405579</v>
+        <v>3406373</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9884006162302631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9831327992057651</v>
+        <v>0.9827560950509827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9920546999042776</v>
+        <v>0.9922859508933238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5203</v>
@@ -2135,19 +2135,19 @@
         <v>3602267</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3590903</v>
+        <v>3590339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3611055</v>
+        <v>3610843</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9928495015518457</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9897172419595031</v>
+        <v>0.9895617856447756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.995271604672109</v>
+        <v>0.9952130956781807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8465</v>
@@ -2156,19 +2156,19 @@
         <v>6995303</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6974231</v>
+        <v>6972881</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7012772</v>
+        <v>7011220</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.990686601990092</v>
+        <v>0.9906866019900921</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9877023021991759</v>
+        <v>0.9875110892747171</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9931604528666615</v>
+        <v>0.9929407610764636</v>
       </c>
     </row>
     <row r="24">
